--- a/biology/Zoologie/Chamaeleo/Chamaeleo.xlsx
+++ b/biology/Zoologie/Chamaeleo/Chamaeleo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaeleo est un genre de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaeleo est un genre de sauriens de la famille des Chamaeleonidae.
 Ce genre comprend en particulier la seule espèce présente naturellement en Europe, le Caméléon commun.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, au Moyen-Orient, dans le sud de l'Europe et en Asie du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, au Moyen-Orient, dans le sud de l'Europe et en Asie du Sud.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont les caméléons appelés « vrais ». Ils sont en général plutôt grands (en moyenne 20 à 40 centimètres, et jusqu'à 70 centimètres, héliophiles, dotés d'une longue queue et sont ovipares ou ovovivipares (ce dernier cas concerne en général les espèces vivant en milieu plus frais, en altitude par exemple). Ils se nourrissent d'insectes, parfois de petits vertébrés pour les plus grandes espèces, et certains consomment également des feuilles d'arbres. Ils ont tous un comportement principalement arboricole.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (6 juin 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (6 juin 2012) :
 Chamaeleo africanus Laurenti, 1768 — Caméléon Africain
 Chamaeleo anchietae Bocage, 1872 — Caméléon d'Angola
 Chamaeleo arabicus (Matschie, 1893) — Caméléon d'Arabie
@@ -618,9 +636,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre, Chamaeleo, vient du grec χαμαε, « à terre », et λεων, « lion », soit « lion qui rampe »[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre, Chamaeleo, vient du grec χαμαε, « à terre », et λεων, « lion », soit « lion qui rampe ».
 </t>
         </is>
       </c>
@@ -649,7 +669,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Laurenti, 1768 : Specimen medicum, exhibens synopsin reptilium emendatam cum experimentis circa venena et antidota reptilium austriacorum, Vienna Joan Thomae, p. 1-217 (texte intégral).</t>
         </is>
